--- a/data/return_mock_unique_updated.xlsx
+++ b/data/return_mock_unique_updated.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F401303-9F79-44AD-A2A3-0BFCB896F229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24533D4-AF31-45AC-9F7D-BC70A31C5642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="report" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
